--- a/Demi/code/WoniuBoss/testdata/woniuboss_test.xlsx
+++ b/Demi/code/WoniuBoss/testdata/woniuboss_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="report_center" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="206">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,9 +39,6 @@
   <si>
     <t>测试目标</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/report/countByCounselor</t>
   </si>
   <si>
     <t>s_consulttime=2020-03-03
@@ -211,9 +208,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/report/countByCounselo</t>
-  </si>
-  <si>
     <t>电销部正确的日期参数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -256,9 +250,6 @@
     <t>[{"numcq":0,"source_cd":"招聘会","numcd":1,"source_cq":"","num":21,"source_xa":"招聘会","source":"招聘会","numxa":20}]</t>
   </si>
   <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/report/countBySource</t>
-  </si>
-  <si>
     <t>report_center_mark_03</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
       <t>]</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=</t>
   </si>
   <si>
     <t>report_center_job_01</t>
@@ -357,24 +345,6 @@
     <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
   </si>
   <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=year</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=lastmonth</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=lastweek</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=month</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=week</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=today</t>
-  </si>
-  <si>
     <t>report_center_job_02</t>
   </si>
   <si>
@@ -391,14 +361,6 @@
   </si>
   <si>
     <t>report_center_job_07</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7:8080/WoniuBoss2.5/report/countByCounselor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.159.143:8080/WoniuBoss2.5/market/queryNetCus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10
@@ -420,10 +382,6 @@
   <si>
     <t>参数全部正确是否新增成功</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.159.143:8080/WoniuBoss2.5/market/saveAddCus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>cus.customer_id=
@@ -629,9 +587,6 @@
     </r>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/upload?dept=1&amp;region=1</t>
-  </si>
-  <si>
     <t>上传内容不正确</t>
   </si>
   <si>
@@ -644,10 +599,6 @@
     <t>regionSelect=1
 dpetSelect=1
 token=D:\\resu.xlsx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/upload?dept=2&amp;region=11</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2236,9 +2187,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%E5%A4%A7%E6%B5%B7%E5%85%AC%E5%8F%B8&amp;ent.ent_category=%E4%BA%92%E8%81%94%E4%B8%87%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E9%AB%98%E6%96%B0%E5%8C%BA&amp;ent.ent_header=%E5%93%88%E5%93%88&amp;ent.tel=13088997788&amp;ent.email=2245678456%40qq.com&amp;ent.qq=2245678456</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2270,17 +2218,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%40%23%40%EF%BF%A5&amp;ent.ent_category=%E5%93%88%E5%81%B6&amp;ent.ent_addr=%E5%8F%AF%E7%82%B9%E5%87%BB&amp;ent.ent_header=kwje&amp;ent.tel=13099898878&amp;ent.email=&amp;ent.qq=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>输入含有错误的手机号码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%E5%A4%A7%E6%B5%B7%E5%85%AC%E5%8F%B8&amp;ent.ent_category=%E4%BA%92%E8%81%94%E4%B8%87%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E9%AB%98%E6%96%B0%E5%8C%BA&amp;ent.ent_header=%E5%93%88%E5%93%88&amp;ent.tel=@#@#@#&amp;ent.email=2245678456%40qq.com&amp;ent.qq=2245678456</t>
-  </si>
-  <si>
     <t>不输入邮箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2294,9 +2235,6 @@
     <t>enterprise_customer_add_04</t>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/enterprise/updateEnterp?ent.enterprise_id=3&amp;ent.ent_name=%E6%B5%B7%E8%BE%89%E8%BD%AF%E4%BB%B6%EF%BC%88%E6%88%90%E9%83%BD%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8si&amp;ent.ent_category=%E9%9B%B6%E5%94%AE%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E5%A4%A9%E5%BA%9C%E8%BD%AF%E4%BB%B6%E5%9B%ADd7-13%E6%A5%BC&amp;ent.ent_header=%E5%BC%A0%E9%9B%AF&amp;ent.tel=02885196988&amp;ent.email=wen.zhang%40hisoft.com&amp;ent.qq</t>
-  </si>
-  <si>
     <t>enterprise_customer_update_01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2328,9 +2266,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/enterprise/companySearch?companyName=</t>
-  </si>
-  <si>
     <t>enterprise_customer_query_01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3025,9 +2960,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/insertSrecord?ispass=%E9%80%9A%E8%BF%87&amp;sr.skillrecord_student_id=858&amp;sr.questions=%E4%BB%80%E4%B9%88%E6%98%AFJSON%E6%A0%BC%E5%BC%8F&amp;sr.valuate=%E9%80%9A%E8%BF%87</t>
-  </si>
-  <si>
     <t>tenique_pass_01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3040,9 +2972,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/insertSrecord?ispass=%E6%9C%AA%E9%80%9A%E8%BF%87&amp;sr.skillrecord_student_id=1272&amp;sr.questions=wede&amp;sr.valuate=ew</t>
-  </si>
-  <si>
     <t>技术面试未通过</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3057,9 +2986,6 @@
   <si>
     <t>技术面试选择通过</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/queryPass</t>
   </si>
   <si>
     <t>pageSize=10
@@ -3277,9 +3203,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/queryUnpass</t>
-  </si>
-  <si>
     <r>
       <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"orientation":"</t>
     </r>
@@ -3385,9 +3308,6 @@
     </r>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/queryInfo</t>
-  </si>
-  <si>
     <t>技术面试选择全部</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4106,16 +4026,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/insertMrecord?m.minterview_student_id=584&amp;m.intent_salary=7000&amp;m.comm=%E4%BC%98&amp;m.remark=%E5%8F%AF%E4%BB%A5%E6%8E%A8%E8%8D%90</t>
-  </si>
-  <si>
     <t>面试通过</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/checkOther?reCompu=1&amp;isSign=0&amp;isHired=0&amp;stuId=851</t>
-  </si>
-  <si>
     <t>提交功能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4141,9 +4055,6 @@
       <t>.</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/queryStuByInfo</t>
   </si>
   <si>
     <t>job_manage_pass_01</t>
@@ -4596,10 +4507,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/insertRrecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>真实面试</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4618,9 +4525,6 @@
   <si>
     <t>保存信息成功</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.6:8080/WoniuBoss2.5/interview/insertJobRegist</t>
   </si>
   <si>
     <t>job_manage_create_01</t>
@@ -4649,6 +4553,108 @@
   </si>
   <si>
     <t>技术面试选未择通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/report/countByCounselor</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/report/countByCounselo</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/report/countBySource</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=today</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=week</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=month</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=lastweek</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=lastmonth</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/reportjob/queryJobInfo?selectTime=year</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/market/saveAddCus</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/market/queryNetCus</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/upload?dept=1&amp;region=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%E5%A4%A7%E6%B5%B7%E5%85%AC%E5%8F%B8&amp;ent.ent_category=%E4%BA%92%E8%81%94%E4%B8%87%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E9%AB%98%E6%96%B0%E5%8C%BA&amp;ent.ent_header=%E5%93%88%E5%93%88&amp;ent.tel=13088997788&amp;ent.email=2245678456%40qq.com&amp;ent.qq=2245678456</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%40%23%40%EF%BF%A5&amp;ent.ent_category=%E5%93%88%E5%81%B6&amp;ent.ent_addr=%E5%8F%AF%E7%82%B9%E5%87%BB&amp;ent.ent_header=kwje&amp;ent.tel=13099898878&amp;ent.email=&amp;ent.qq=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/enterprise/addEnterp?ent.ent_name=%E5%A4%A7%E6%B5%B7%E5%85%AC%E5%8F%B8&amp;ent.ent_category=%E4%BA%92%E8%81%94%E4%B8%87%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E9%AB%98%E6%96%B0%E5%8C%BA&amp;ent.ent_header=%E5%93%88%E5%93%88&amp;ent.tel=@#@#@#&amp;ent.email=2245678456%40qq.com&amp;ent.qq=2245678456</t>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/enterprise/updateEnterp?ent.enterprise_id=3&amp;ent.ent_name=%E6%B5%B7%E8%BE%89%E8%BD%AF%E4%BB%B6%EF%BC%88%E6%88%90%E9%83%BD%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8si&amp;ent.ent_category=%E9%9B%B6%E5%94%AE%E8%A1%8C%E4%B8%9A&amp;ent.ent_addr=%E5%A4%A9%E5%BA%9C%E8%BD%AF%E4%BB%B6%E5%9B%ADd7-13%E6%A5%BC&amp;ent.ent_header=%E5%BC%A0%E9%9B%AF&amp;ent.tel=02885196988&amp;ent.email=wen.zhang%40hisoft.com&amp;ent.qq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/enterprise/companySearch?companyName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/insertSrecord?ispass=%E9%80%9A%E8%BF%87&amp;sr.skillrecord_student_id=858&amp;sr.questions=%E4%BB%80%E4%B9%88%E6%98%AFJSON%E6%A0%BC%E5%BC%8F&amp;sr.valuate=%E9%80%9A%E8%BF%87</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/insertSrecord?ispass=%E6%9C%AA%E9%80%9A%E8%BF%87&amp;sr.skillrecord_student_id=1272&amp;sr.questions=wede&amp;sr.valuate=ew</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/queryPass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/queryUnpass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/queryInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/insertMrecord?m.minterview_student_id=584&amp;m.intent_salary=7000&amp;m.comm=%E4%BC%98&amp;m.remark=%E5%8F%AF%E4%BB%A5%E6%8E%A8%E8%8D%90</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/checkOther?reCompu=1&amp;isSign=0&amp;isHired=0&amp;stuId=851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/queryStuByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/queryStuByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/insertRrecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.2:8080/WoniuBoss2.5/interview/insertJobRegist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4743,11 +4749,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4800,7 +4807,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4808,8 +4815,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4946,11 +4954,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5254,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5287,36 +5302,36 @@
     </row>
     <row r="2" spans="1:23" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -5339,19 +5354,19 @@
     </row>
     <row r="4" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -5374,19 +5389,19 @@
     </row>
     <row r="5" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -5409,19 +5424,19 @@
     </row>
     <row r="6" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -5444,19 +5459,19 @@
     </row>
     <row r="7" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -5479,19 +5494,19 @@
     </row>
     <row r="8" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -5514,19 +5529,19 @@
     </row>
     <row r="9" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -5549,19 +5564,19 @@
     </row>
     <row r="10" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -5584,53 +5599,53 @@
     </row>
     <row r="11" spans="1:23" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -5653,19 +5668,19 @@
     </row>
     <row r="14" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -5688,19 +5703,19 @@
     </row>
     <row r="15" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -5723,19 +5738,19 @@
     </row>
     <row r="16" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -5758,19 +5773,19 @@
     </row>
     <row r="17" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -5793,19 +5808,19 @@
     </row>
     <row r="18" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -5828,19 +5843,19 @@
     </row>
     <row r="19" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -5863,36 +5878,36 @@
     </row>
     <row r="20" spans="1:23" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -5915,19 +5930,19 @@
     </row>
     <row r="22" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -5950,19 +5965,19 @@
     </row>
     <row r="23" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -5985,19 +6000,19 @@
     </row>
     <row r="24" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -6020,19 +6035,19 @@
     </row>
     <row r="25" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -6055,19 +6070,19 @@
     </row>
     <row r="26" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -6090,19 +6105,19 @@
     </row>
     <row r="27" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -6125,36 +6140,36 @@
     </row>
     <row r="28" spans="1:23" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -6177,19 +6192,19 @@
     </row>
     <row r="30" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -6212,19 +6227,19 @@
     </row>
     <row r="31" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="E31" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -6247,19 +6262,19 @@
     </row>
     <row r="32" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -6282,19 +6297,19 @@
     </row>
     <row r="33" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -6317,19 +6332,19 @@
     </row>
     <row r="34" spans="1:23" ht="54" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -6361,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6393,189 +6408,189 @@
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="34" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="38" t="s">
         <v>112</v>
       </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
       <c r="D8" s="28" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="34" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -6592,8 +6607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6616,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -6632,92 +6647,92 @@
     </row>
     <row r="2" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>141</v>
+        <v>124</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="43" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="39" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="39" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="39" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>152</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="38" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="342" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="28" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6747,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6746,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>4</v>
@@ -6767,85 +6782,85 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>160</v>
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="46" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="46" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>169</v>
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6858,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6882,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -6898,104 +6913,112 @@
     </row>
     <row r="2" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="46" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="9" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>202</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>195</v>
+        <v>167</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>204</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>205</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>